--- a/Data/aearep-1601/candidatepackages.xlsx
+++ b/Data/aearep-1601/candidatepackages.xlsx
@@ -14,95 +14,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
+    <t>egenmore</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>egenmore</t>
-  </si>
-  <si>
     <t>shp2dta</t>
   </si>
   <si>
+    <t>geodist</t>
+  </si>
+  <si>
     <t>gtools</t>
   </si>
   <si>
     <t>sxpose</t>
   </si>
   <si>
-    <t>geodist</t>
-  </si>
-  <si>
     <t>boottest</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>listtex</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>title</t>
   </si>
   <si>
     <t>centroid</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
+    <t>rcd</t>
+  </si>
+  <si>
     <t>split</t>
   </si>
   <si>
     <t>semean</t>
   </si>
   <si>
-    <t>rcd</t>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>sumstats</t>
   </si>
   <si>
     <t>workdays</t>
   </si>
   <si>
-    <t>levels</t>
+    <t>geocode</t>
   </si>
   <si>
     <t>running</t>
   </si>
   <si>
-    <t>geocode</t>
-  </si>
-  <si>
-    <t>sumstats</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
     <t>dag</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>bys</t>
   </si>
   <si>
@@ -112,27 +106,18 @@
     <t>mc</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>rc2</t>
   </si>
   <si>
     <t>digits</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1601</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1601/127341/replication</t>
   </si>
   <si>
@@ -157,13 +139,7 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>OptimalLockdown_Replicate_Stata.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>000_setup.do</t>
@@ -276,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -284,13 +260,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -298,7 +274,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -310,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -322,7 +298,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -334,7 +310,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -346,7 +322,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -358,7 +334,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -370,7 +346,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -382,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -394,7 +370,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -406,7 +382,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -418,7 +394,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -430,10 +406,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D13"/>
     </row>
@@ -442,10 +418,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C14">
-        <v>0.13461539149284363</v>
+        <v>0.13917355239391327</v>
       </c>
       <c r="D14"/>
     </row>
@@ -454,10 +430,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="C15">
-        <v>0.13826259970664978</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D15"/>
     </row>
@@ -466,10 +442,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C16">
-        <v>0.18136604130268097</v>
+        <v>0.18049587309360504</v>
       </c>
       <c r="D16"/>
     </row>
@@ -478,10 +454,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C17">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D17"/>
     </row>
@@ -490,10 +466,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="C18">
-        <v>0.18766577541828156</v>
+        <v>0.19735537469387054</v>
       </c>
       <c r="D18"/>
     </row>
@@ -502,10 +478,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C19">
-        <v>0.20092837512493134</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D19"/>
     </row>
@@ -514,10 +490,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="C20">
-        <v>0.20324933528900146</v>
+        <v>0.21388429403305054</v>
       </c>
       <c r="D20"/>
     </row>
@@ -526,10 +502,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="C21">
-        <v>0.20689655840396881</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D21"/>
     </row>
@@ -538,10 +514,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>634</v>
+        <v>812</v>
       </c>
       <c r="C22">
-        <v>0.21021220088005066</v>
+        <v>0.26842975616455078</v>
       </c>
       <c r="D22"/>
     </row>
@@ -550,10 +526,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>694</v>
+        <v>824</v>
       </c>
       <c r="C23">
-        <v>0.23010610044002533</v>
+        <v>0.27239668369293213</v>
       </c>
       <c r="D23"/>
     </row>
@@ -562,10 +538,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="C24">
-        <v>0.2642572820186615</v>
+        <v>0.27933883666992188</v>
       </c>
       <c r="D24"/>
     </row>
@@ -574,10 +550,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>817</v>
+        <v>884</v>
       </c>
       <c r="C25">
-        <v>0.27088859677314758</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D25"/>
     </row>
@@ -586,10 +562,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>827</v>
+        <v>998</v>
       </c>
       <c r="C26">
-        <v>0.27420425415039062</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D26"/>
     </row>
@@ -598,10 +574,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>985</v>
+        <v>1068</v>
       </c>
       <c r="C27">
-        <v>0.32659152150154114</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="D27"/>
     </row>
@@ -610,10 +586,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1030</v>
+        <v>1306</v>
       </c>
       <c r="C28">
-        <v>0.34151193499565125</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D28"/>
     </row>
@@ -622,10 +598,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1124</v>
+        <v>1428</v>
       </c>
       <c r="C29">
-        <v>0.37267905473709106</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D29"/>
     </row>
@@ -634,10 +610,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1472</v>
+        <v>1767</v>
       </c>
       <c r="C30">
-        <v>0.48806366324424744</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D30"/>
     </row>
@@ -646,10 +622,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1553</v>
+        <v>1971</v>
       </c>
       <c r="C31">
-        <v>0.51492041349411011</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D31"/>
     </row>
@@ -658,10 +634,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1755</v>
+        <v>2436</v>
       </c>
       <c r="C32">
-        <v>0.58189654350280762</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D32"/>
     </row>
@@ -670,10 +646,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1798</v>
+        <v>2449</v>
       </c>
       <c r="C33">
-        <v>0.5961538553237915</v>
+        <v>0.80958676338195801</v>
       </c>
       <c r="D33"/>
     </row>
@@ -682,72 +658,12 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1817</v>
+        <v>2540</v>
       </c>
       <c r="C34">
-        <v>0.60245358943939209</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1859</v>
-      </c>
-      <c r="C35">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2133</v>
-      </c>
-      <c r="C36">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2326</v>
-      </c>
-      <c r="C37">
-        <v>0.77122014760971069</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2375</v>
-      </c>
-      <c r="C38">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2424</v>
-      </c>
-      <c r="C39">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D39"/>
     </row>
   </sheetData>
 </worksheet>
@@ -755,223 +671,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
